--- a/weapon_data.xlsx
+++ b/weapon_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>武器名称</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>技能属性</t>
+  </si>
+  <si>
+    <t>图片文件名</t>
+  </si>
+  <si>
+    <t>熔铸火焰</t>
+  </si>
+  <si>
+    <t>智识提升</t>
+  </si>
+  <si>
+    <t>攻击提升</t>
+  </si>
+  <si>
+    <t>夜幕</t>
+  </si>
+  <si>
+    <t>rzhy.png</t>
   </si>
 </sst>
 </file>
@@ -654,9 +672,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -977,26 +998,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
